--- a/OutBoundProd_12_19_2017.xlsx
+++ b/OutBoundProd_12_19_2017.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="28">
-  <si>
-    <t>HOUR 12:45 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
+  <si>
+    <t>HOUR 07:09 AM</t>
   </si>
   <si>
     <t>Tech</t>
@@ -45,37 +45,70 @@
     <t xml:space="preserve">     Tech Total    </t>
   </si>
   <si>
-    <t>2512</t>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>Mr.Lamb</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>JonDon</t>
+  </si>
+  <si>
+    <t>7946</t>
+  </si>
+  <si>
+    <t>Yuppers</t>
+  </si>
+  <si>
+    <t>4195</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>Binary</t>
   </si>
   <si>
     <t>Total Dev</t>
@@ -84,19 +117,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>HOUR 12:46 AM</t>
-  </si>
-  <si>
     <t>OUTBOUND PRODUCTION</t>
-  </si>
-  <si>
-    <t>72</t>
   </si>
 </sst>
 </file>
@@ -104,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="139">
+  <fonts count="237">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -340,6 +361,366 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="9"/>
     </font>
     <font>
@@ -570,57 +951,187 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -969,41 +1480,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="137" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="102" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="235" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="93" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.33203125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1078,39 +1584,39 @@
         <v>14</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>12</v>
@@ -1122,81 +1628,134 @@
         <v>12</v>
       </c>
       <c r="I6" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="1">
+      <c r="C9" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="1">
+      <c r="D9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s" s="5">
+      <c r="C10" t="s" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>9</v>
+      <c r="D10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>12</v>
@@ -1214,18 +1773,18 @@
         <v>12</v>
       </c>
       <c r="I11" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>12</v>
@@ -1251,10 +1810,10 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>12</v>
@@ -1280,10 +1839,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>12</v>
@@ -1301,16 +1860,44 @@
         <v>12</v>
       </c>
       <c r="I14" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s" s="7">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J14" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s" s="5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1318,19 +1905,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.33203125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="8">
-        <v>26</v>
+      <c r="B2" t="s" s="6">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1385,10 +1972,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1399,39 +1986,39 @@
         <v>14</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>12</v>
@@ -1443,39 +2030,271 @@
         <v>12</v>
       </c>
       <c r="I6" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="1">
+      <c r="C9" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="D7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="1">
+      <c r="D9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s" s="9">
+      <c r="C10" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="1">
         <v>27</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s" s="7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/OutBoundProd_12_19_2017.xlsx
+++ b/OutBoundProd_12_19_2017.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
-  <si>
-    <t>HOUR 07:09 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="40">
+  <si>
+    <t>HOUR 07:19 PM</t>
   </si>
   <si>
     <t>Tech</t>
@@ -45,21 +45,30 @@
     <t xml:space="preserve">     Tech Total    </t>
   </si>
   <si>
+    <t>7485</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2273</t>
   </si>
   <si>
     <t>Vince</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
     <t>Emily</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2222</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
     <t>4195</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>1254</t>
   </si>
   <si>
@@ -117,7 +123,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>HOUR 07:21 PM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>OUTBOUND PRODUCTION</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="237">
+  <fonts count="382">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -721,6 +736,51 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="9"/>
     </font>
     <font>
@@ -772,6 +832,686 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1480,30 +2220,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="235" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="128" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="380" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="255" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="127" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1616,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>12</v>
@@ -1631,15 +2376,15 @@
         <v>12</v>
       </c>
       <c r="J6" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="1">
         <v>12</v>
@@ -1665,10 +2410,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>12</v>
@@ -1694,10 +2439,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>12</v>
@@ -1723,10 +2468,10 @@
     </row>
     <row r="10">
       <c r="B10" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>12</v>
@@ -1752,10 +2497,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>12</v>
@@ -1781,10 +2526,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>12</v>
@@ -1810,10 +2555,10 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>12</v>
@@ -1839,10 +2584,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>12</v>
@@ -1891,13 +2636,454 @@
       <c r="I15" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="J15" t="s" s="5">
-        <v>12</v>
+      <c r="J15" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s" s="7">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1905,7 +3091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1916,8 +3102,8 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s" s="6">
-        <v>34</v>
+      <c r="B2" t="s" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -2018,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>12</v>
@@ -2033,15 +3219,15 @@
         <v>12</v>
       </c>
       <c r="J6" t="s" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="1">
         <v>12</v>
@@ -2067,10 +3253,10 @@
     </row>
     <row r="8">
       <c r="B8" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>12</v>
@@ -2096,10 +3282,10 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s" s="1">
         <v>12</v>
@@ -2125,10 +3311,10 @@
     </row>
     <row r="10">
       <c r="B10" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="1">
         <v>12</v>
@@ -2154,10 +3340,10 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s" s="1">
         <v>12</v>
@@ -2183,10 +3369,10 @@
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s" s="1">
         <v>12</v>
@@ -2212,10 +3398,10 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>12</v>
@@ -2241,10 +3427,10 @@
     </row>
     <row r="14">
       <c r="B14" t="s" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s" s="1">
         <v>12</v>
@@ -2293,8 +3479,37 @@
       <c r="I15" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="J15" t="s" s="7">
-        <v>12</v>
+      <c r="J15" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s" s="9">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
